--- a/monthly_reports/monthly_data/2021 Charts Month 6.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
   <si>
     <t>Artist</t>
   </si>
@@ -39,28 +39,55 @@
     <t>David Guetta, MORTEN, John Martin</t>
   </si>
   <si>
+    <t>Martin Garrix, Bono, The Edge</t>
+  </si>
+  <si>
+    <t>Fairlane, Grant</t>
+  </si>
+  <si>
+    <t>Pixel Terror, Chime, Teminite</t>
+  </si>
+  <si>
     <t>Dirtyphonics</t>
   </si>
   <si>
-    <t>Pixel Terror, Chime, Teminite</t>
+    <t>HAVOQ, Max Adrian, Katie Sky</t>
   </si>
   <si>
     <t>Impossible</t>
   </si>
   <si>
+    <t>We Are The People (Martin Garrix Remix)</t>
+  </si>
+  <si>
+    <t>Hypnotize</t>
+  </si>
+  <si>
+    <t>Sleepless</t>
+  </si>
+  <si>
     <t>Gasoline</t>
   </si>
   <si>
-    <t>Sleepless</t>
+    <t>Fall In Love</t>
   </si>
   <si>
     <t>Musical Freedom, Spinnin' Records</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
+    <t>Proximity</t>
+  </si>
+  <si>
+    <t>Monstercat</t>
+  </si>
+  <si>
     <t>Disciple</t>
   </si>
   <si>
-    <t>Monstercat</t>
+    <t>Revealed Music</t>
   </si>
   <si>
     <t>1001T_Supports</t>
@@ -81,6 +108,21 @@
     <t>MORTEN</t>
   </si>
   <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
+    <t>The Edge</t>
+  </si>
+  <si>
+    <t>Fairlane</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
     <t>Chime</t>
   </si>
   <si>
@@ -88,6 +130,15 @@
   </si>
   <si>
     <t>Teminite</t>
+  </si>
+  <si>
+    <t>HAVOQ</t>
+  </si>
+  <si>
+    <t>Katie Sky</t>
+  </si>
+  <si>
+    <t>Max Adrian</t>
   </si>
   <si>
     <t>Musical Freedom</t>
@@ -451,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,13 +527,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>681595</v>
+        <v>1453605</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,13 +541,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>128352</v>
+        <v>1095298</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -504,13 +555,55 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>220633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>193815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>138580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>100057</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>12200</v>
       </c>
     </row>
   </sheetData>
@@ -520,7 +613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +630,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -548,49 +641,100 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E2">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -601,7 +745,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,49 +762,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>26821</v>
+        <v>68249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>26617</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>40193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>23408</v>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -669,6 +855,477 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>1453605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1453605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>1453605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1095298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>1095298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1095298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>220633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>220633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>193815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>193815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>193815</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>138580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>12200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>12200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>118</v>
+      </c>
+      <c r="C2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>68249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>68249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>68249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>40193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -678,7 +1335,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -686,34 +1343,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>681595</v>
+        <v>1453605</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>681595</v>
+        <v>1453605</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>681595</v>
+        <v>1095298</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>128352</v>
+        <v>220633</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -721,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>100057</v>
+        <v>193815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -729,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>100057</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -737,7 +1394,7 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>100057</v>
+        <v>12200</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +1402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -755,84 +1412,84 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -846,7 +1503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -856,240 +1513,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>26821</v>
+        <v>68249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>26821</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>26821</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>26617</v>
+        <v>40193</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>23408</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>23408</v>
+        <v>6956</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>23408</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>681595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>681595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>128352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>100057</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>103</v>
-      </c>
-      <c r="C2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>103</v>
-      </c>
-      <c r="C3">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>26821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>26821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>26617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>23408</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 6.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 6.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="55">
   <si>
     <t>Artist</t>
   </si>
@@ -42,6 +42,9 @@
     <t>Martin Garrix, Bono, The Edge</t>
   </si>
   <si>
+    <t>AREA21, Martin Garrix, Maejor</t>
+  </si>
+  <si>
     <t>Fairlane, Grant</t>
   </si>
   <si>
@@ -51,6 +54,12 @@
     <t>Dirtyphonics</t>
   </si>
   <si>
+    <t>Aspyer, Karin Park</t>
+  </si>
+  <si>
+    <t>Aiobahn, NUZB</t>
+  </si>
+  <si>
     <t>HAVOQ, Max Adrian, Katie Sky</t>
   </si>
   <si>
@@ -60,6 +69,9 @@
     <t>We Are The People (Martin Garrix Remix)</t>
   </si>
   <si>
+    <t>Mona Lisa</t>
+  </si>
+  <si>
     <t>Hypnotize</t>
   </si>
   <si>
@@ -69,6 +81,12 @@
     <t>Gasoline</t>
   </si>
   <si>
+    <t>The Rest Of Your Life</t>
+  </si>
+  <si>
+    <t>All Of This</t>
+  </si>
+  <si>
     <t>Fall In Love</t>
   </si>
   <si>
@@ -78,6 +96,9 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>STMPD RCRDS, Hollywood Records</t>
+  </si>
+  <si>
     <t>Proximity</t>
   </si>
   <si>
@@ -99,6 +120,9 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>Martin Garrix</t>
+  </si>
+  <si>
     <t>David Guetta</t>
   </si>
   <si>
@@ -111,12 +135,15 @@
     <t>Bono</t>
   </si>
   <si>
-    <t>Martin Garrix</t>
-  </si>
-  <si>
     <t>The Edge</t>
   </si>
   <si>
+    <t>AREA21</t>
+  </si>
+  <si>
+    <t>Maejor</t>
+  </si>
+  <si>
     <t>Fairlane</t>
   </si>
   <si>
@@ -132,6 +159,18 @@
     <t>Teminite</t>
   </si>
   <si>
+    <t>Aspyer</t>
+  </si>
+  <si>
+    <t>Karin Park</t>
+  </si>
+  <si>
+    <t>Aiobahn</t>
+  </si>
+  <si>
+    <t>NUZB</t>
+  </si>
+  <si>
     <t>HAVOQ</t>
   </si>
   <si>
@@ -145,6 +184,9 @@
   </si>
   <si>
     <t>Spinnin' Records</t>
+  </si>
+  <si>
+    <t>Hollywood Records</t>
   </si>
 </sst>
 </file>
@@ -502,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,13 +569,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>1453605</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -541,13 +583,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>1095298</v>
+        <v>1315905</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -555,13 +597,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>220633</v>
+        <v>822062</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -569,13 +611,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>193815</v>
+        <v>223335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -583,13 +625,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>138580</v>
+        <v>209388</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -597,13 +639,55 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>141045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>31653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>17386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>12200</v>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>14049</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -630,10 +714,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -641,84 +725,84 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -726,15 +810,66 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
@@ -745,7 +880,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -762,21 +897,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
-        <v>68249</v>
+        <v>74387</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -784,27 +919,27 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>40193</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -812,41 +947,83 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>7688</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>6956</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>1064</v>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,122 +1049,170 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2">
-        <v>1453605</v>
+        <v>2137967</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>1453605</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>1453605</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>1095298</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>1095298</v>
+        <v>1315905</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>1095298</v>
+        <v>1315905</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>220633</v>
+        <v>822062</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>220633</v>
+        <v>822062</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>193815</v>
+        <v>223335</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B11">
-        <v>193815</v>
+        <v>223335</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12">
-        <v>193815</v>
+        <v>209388</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B13">
-        <v>138580</v>
+        <v>209388</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B14">
-        <v>12200</v>
+        <v>209388</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>12200</v>
+        <v>141045</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>12200</v>
+        <v>31653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>31653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>17386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>17386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20">
+        <v>14049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>14049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>14049</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1222,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1008,87 +1233,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1096,51 +1321,51 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1148,34 +1373,100 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -1186,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1197,127 +1488,175 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B2">
-        <v>68249</v>
+        <v>74387</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>68249</v>
+        <v>74387</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B4">
-        <v>68249</v>
+        <v>74387</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>40193</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>7688</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>7688</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>6956</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>6956</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>6956</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>1064</v>
+        <v>8961</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>1064</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>1064</v>
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1343,58 +1682,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>1453605</v>
+        <v>2169620</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>1453605</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>1095298</v>
+        <v>1551571</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B5">
-        <v>220633</v>
+        <v>822062</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>193815</v>
+        <v>226774</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>138580</v>
+        <v>223335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>12200</v>
+        <v>141045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>14049</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1751,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1415,70 +1762,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C2">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1489,12 +1836,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -1505,7 +1863,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1516,63 +1874,71 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>68249</v>
+        <v>83114</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B3">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B4">
-        <v>42856</v>
+        <v>46555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>40193</v>
+        <v>42840</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>7688</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B7">
-        <v>6956</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>1064</v>
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>8303</v>
       </c>
     </row>
   </sheetData>
